--- a/Team-Data/2012-13/1-7-2012-13.xlsx
+++ b/Team-Data/2012-13/1-7-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -765,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -792,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -848,34 +915,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="H3" t="n">
         <v>48.9</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>79.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N3" t="n">
         <v>0.345</v>
@@ -887,13 +954,13 @@
         <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.788</v>
+        <v>0.785</v>
       </c>
       <c r="R3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T3" t="n">
         <v>38.6</v>
@@ -902,16 +969,16 @@
         <v>23.2</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -920,13 +987,13 @@
         <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -935,13 +1002,13 @@
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -956,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>20</v>
@@ -980,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -989,7 +1056,7 @@
         <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>24</v>
@@ -1001,7 +1068,7 @@
         <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1123,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1153,10 +1220,10 @@
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU4" t="n">
         <v>24</v>
@@ -1168,7 +1235,7 @@
         <v>26</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1302,10 +1369,10 @@
         <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1320,7 +1387,7 @@
         <v>25</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
@@ -1332,16 +1399,16 @@
         <v>19</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
         <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV5" t="n">
         <v>6</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -1394,106 +1461,106 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
         <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.594</v>
+        <v>0.581</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="J6" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="L6" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>13.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.36</v>
+        <v>0.347</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P6" t="n">
         <v>22.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
         <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>92.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1514,40 +1581,40 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY6" t="n">
         <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.222</v>
+        <v>0.229</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J7" t="n">
-        <v>84.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.417</v>
@@ -1603,28 +1670,28 @@
         <v>7.7</v>
       </c>
       <c r="M7" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P7" t="n">
         <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R7" t="n">
         <v>13.1</v>
       </c>
       <c r="S7" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="T7" t="n">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="U7" t="n">
         <v>19.4</v>
@@ -1639,7 +1706,7 @@
         <v>3.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
         <v>22.2</v>
@@ -1648,16 +1715,16 @@
         <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.9</v>
+        <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
         <v>29</v>
@@ -1666,10 +1733,10 @@
         <v>29</v>
       </c>
       <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
         <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>28</v>
       </c>
       <c r="AJ7" t="n">
         <v>4</v>
@@ -1684,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1699,16 +1766,16 @@
         <v>4</v>
       </c>
       <c r="AS7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU7" t="n">
         <v>29</v>
       </c>
-      <c r="AT7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>30</v>
-      </c>
       <c r="AV7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW7" t="n">
         <v>13</v>
@@ -1726,10 +1793,10 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.371</v>
+        <v>0.382</v>
       </c>
       <c r="H8" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I8" t="n">
         <v>37.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.447</v>
@@ -1788,7 +1855,7 @@
         <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
         <v>16.7</v>
@@ -1797,46 +1864,46 @@
         <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.787</v>
+        <v>0.783</v>
       </c>
       <c r="R8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>32.4</v>
+        <v>32.2</v>
       </c>
       <c r="T8" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W8" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X8" t="n">
         <v>5.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC8" t="n">
         <v>-4.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1851,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1866,13 +1933,13 @@
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>7</v>
@@ -1881,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
         <v>21</v>
@@ -1890,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="AV8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2027,10 +2094,10 @@
         <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2209,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>8</v>
@@ -2224,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>27</v>
@@ -2233,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2254,7 +2321,7 @@
         <v>26</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
@@ -2266,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
@@ -2400,7 +2467,7 @@
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>8</v>
@@ -2433,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>28</v>
@@ -2451,7 +2518,7 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -2573,16 +2640,16 @@
         <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2609,13 +2676,13 @@
         <v>21</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2633,7 +2700,7 @@
         <v>8</v>
       </c>
       <c r="BA12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2755,13 +2822,13 @@
         <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
@@ -2770,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
@@ -2779,7 +2846,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>11</v>
@@ -2791,7 +2858,7 @@
         <v>7</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -2812,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2964,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
         <v>27</v>
@@ -2976,13 +3043,13 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>8</v>
       </c>
       <c r="BC14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>2.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3125,7 +3192,7 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>22</v>
@@ -3134,13 +3201,13 @@
         <v>11</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3173,10 +3240,10 @@
         <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -3214,106 +3281,106 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.677</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J16" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L16" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.359</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P16" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.805</v>
+        <v>0.802</v>
       </c>
       <c r="R16" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T16" t="n">
         <v>43.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W16" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="n">
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.8</v>
+        <v>94.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>6</v>
       </c>
-      <c r="AF16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3340,13 +3407,13 @@
         <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3358,16 +3425,16 @@
         <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3540,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -3689,7 +3756,7 @@
         <v>26</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
@@ -3704,7 +3771,7 @@
         <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>15</v>
@@ -3716,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" t="n">
         <v>4</v>
@@ -3731,7 +3798,7 @@
         <v>18</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3923,7 @@
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -3892,7 +3959,7 @@
         <v>17</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -3942,88 +4009,88 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.265</v>
+        <v>0.242</v>
       </c>
       <c r="H20" t="n">
         <v>48.6</v>
       </c>
       <c r="I20" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J20" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="N20" t="n">
         <v>0.379</v>
       </c>
       <c r="O20" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="P20" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R20" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V20" t="n">
         <v>14.3</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y20" t="n">
         <v>6.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
         <v>28</v>
@@ -4032,22 +4099,22 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="n">
         <v>6</v>
@@ -4062,10 +4129,10 @@
         <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
@@ -4074,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>28</v>
       </c>
       <c r="BC20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -4124,103 +4191,103 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>0.676</v>
+        <v>0.697</v>
       </c>
       <c r="H21" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="J21" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L21" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="M21" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.39</v>
+        <v>0.388</v>
       </c>
       <c r="O21" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P21" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R21" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
         <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U21" t="n">
         <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4244,7 +4311,7 @@
         <v>16</v>
       </c>
       <c r="AR21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4268,16 +4335,16 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>6</v>
       </c>
       <c r="BC21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="n">
         <v>26</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.765</v>
+        <v>0.788</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J22" t="n">
         <v>78.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.395</v>
+        <v>0.401</v>
       </c>
       <c r="O22" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
         <v>0.845</v>
       </c>
       <c r="R22" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T22" t="n">
         <v>43.2</v>
@@ -4360,31 +4427,31 @@
         <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y22" t="n">
         <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4393,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
         <v>14</v>
@@ -4426,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
@@ -4444,22 +4511,22 @@
         <v>15</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22" t="n">
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
         <v>2</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.353</v>
+        <v>0.364</v>
       </c>
       <c r="H23" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>82.59999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M23" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O23" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="P23" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.782</v>
+        <v>0.778</v>
       </c>
       <c r="R23" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X23" t="n">
         <v>4.5</v>
@@ -4554,19 +4621,19 @@
         <v>4.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
@@ -4575,25 +4642,25 @@
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
         <v>21</v>
@@ -4608,19 +4675,19 @@
         <v>8</v>
       </c>
       <c r="AR23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS23" t="n">
         <v>7</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4632,13 +4699,13 @@
         <v>8</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>18</v>
@@ -4760,16 +4827,16 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4778,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,13 +4857,13 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS24" t="n">
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4805,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX24" t="n">
         <v>15</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
@@ -4942,7 +5009,7 @@
         <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>7</v>
@@ -4957,7 +5024,7 @@
         <v>24</v>
       </c>
       <c r="AM25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN25" t="n">
         <v>27</v>
@@ -4972,10 +5039,10 @@
         <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
@@ -4993,7 +5060,7 @@
         <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
         <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.545</v>
       </c>
       <c r="H26" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>82.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.44</v>
+        <v>0.437</v>
       </c>
       <c r="L26" t="n">
         <v>8.199999999999999</v>
@@ -5067,73 +5134,73 @@
         <v>0.344</v>
       </c>
       <c r="O26" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
         <v>11.9</v>
       </c>
       <c r="S26" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W26" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
         <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.9</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,49 +5209,49 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO26" t="n">
         <v>23</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>23</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT26" t="n">
         <v>22</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX26" t="n">
         <v>18</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -5216,67 +5283,67 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>0.371</v>
+        <v>0.382</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N27" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
         <v>22.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T27" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
         <v>14.3</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6.6</v>
@@ -5285,16 +5352,16 @@
         <v>20.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -5309,13 +5376,13 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>16</v>
@@ -5324,10 +5391,10 @@
         <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AP27" t="n">
         <v>15</v>
@@ -5342,19 +5409,19 @@
         <v>30</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY27" t="n">
         <v>26</v>
@@ -5363,13 +5430,13 @@
         <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="n">
         <v>27</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.6</v>
+        <v>39.8</v>
       </c>
       <c r="J28" t="n">
-        <v>81.90000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.484</v>
       </c>
       <c r="L28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.386</v>
+        <v>0.389</v>
       </c>
       <c r="O28" t="n">
         <v>16.9</v>
@@ -5443,19 +5510,19 @@
         <v>8.5</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>41.6</v>
+        <v>41.9</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
@@ -5467,13 +5534,13 @@
         <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.9</v>
+        <v>105.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5482,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
         <v>3</v>
@@ -5500,19 +5567,19 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>5</v>
@@ -5521,16 +5588,16 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AW28" t="n">
         <v>6</v>
@@ -5539,13 +5606,13 @@
         <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
         <v>22</v>
@@ -5688,7 +5755,7 @@
         <v>6</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
         <v>10</v>
@@ -5718,7 +5785,7 @@
         <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -5762,64 +5829,64 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J30" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M30" t="n">
         <v>17.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.36</v>
       </c>
       <c r="O30" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P30" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="Q30" t="n">
         <v>0.768</v>
       </c>
       <c r="R30" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U30" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>6.5</v>
@@ -5831,16 +5898,16 @@
         <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
         <v>98.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5849,22 +5916,22 @@
         <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK30" t="n">
         <v>17</v>
       </c>
-      <c r="AK30" t="n">
-        <v>18</v>
-      </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5876,19 +5943,19 @@
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>10</v>
@@ -5897,7 +5964,7 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.152</v>
+        <v>0.125</v>
       </c>
       <c r="H31" t="n">
         <v>49.1</v>
       </c>
       <c r="I31" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="J31" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.408</v>
+        <v>0.407</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M31" t="n">
         <v>20.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.323</v>
+        <v>0.317</v>
       </c>
       <c r="O31" t="n">
         <v>14.7</v>
@@ -5983,13 +6050,13 @@
         <v>19.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
       <c r="R31" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S31" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T31" t="n">
         <v>43.6</v>
@@ -6001,7 +6068,7 @@
         <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
@@ -6010,25 +6077,25 @@
         <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>89.2</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6037,10 +6104,10 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6067,22 +6134,22 @@
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
         <v>16</v>
@@ -6091,7 +6158,7 @@
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-7-2012-13</t>
+          <t>2013-01-07</t>
         </is>
       </c>
     </row>
